--- a/Transformdas_u.xlsx
+++ b/Transformdas_u.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia Maxima alcanzada</t>
+          <t>Frecuencia del primer armonico</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia del segundo armonico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia tercer armonico</t>
         </is>
       </c>
     </row>
@@ -455,7 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>301.242992932001</v>
+        <v>301.2429929320006</v>
+      </c>
+      <c r="D2" t="n">
+        <v>149.1591518401169</v>
+      </c>
+      <c r="E2" t="n">
+        <v>456.2515232756523</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>181.8744200433034</v>
+        <v>182.6992473450873</v>
+      </c>
+      <c r="D3" t="n">
+        <v>366.6357356428498</v>
+      </c>
+      <c r="E3" t="n">
+        <v>549.7473966388288</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>394.5171596413484</v>
+        <v>393.69267236937</v>
+      </c>
+      <c r="D4" t="n">
+        <v>262.5991961249097</v>
+      </c>
+      <c r="E4" t="n">
+        <v>660.0020612181797</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>330.2127659574471</v>
+        <v>330.2127659574467</v>
+      </c>
+      <c r="D5" t="n">
+        <v>165.1063829787236</v>
+      </c>
+      <c r="E5" t="n">
+        <v>495.3191489361707</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>150.164385656396</v>
+        <v>149.5527180977138</v>
+      </c>
+      <c r="D6" t="n">
+        <v>297.576267298723</v>
+      </c>
+      <c r="E6" t="n">
+        <v>450.4931569691871</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>469.5996829171622</v>
+        <v>470.2338485929449</v>
+      </c>
+      <c r="D7" t="n">
+        <v>234.3242172017435</v>
+      </c>
+      <c r="E7" t="n">
+        <v>704.2409829567978</v>
       </c>
     </row>
     <row r="8">
@@ -535,6 +581,12 @@
       <c r="C8" t="n">
         <v>375.4609453570229</v>
       </c>
+      <c r="D8" t="n">
+        <v>187.0600067046594</v>
+      </c>
+      <c r="E8" t="n">
+        <v>748.2400268186393</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -546,7 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>301.3663644489848</v>
+        <v>301.3663644489843</v>
+      </c>
+      <c r="D9" t="n">
+        <v>150.6831822244922</v>
+      </c>
+      <c r="E9" t="n">
+        <v>458.1790320521004</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>207.0597921169083</v>
+        <v>206.2364927446743</v>
+      </c>
+      <c r="D10" t="n">
+        <v>407.9448389420604</v>
+      </c>
+      <c r="E10" t="n">
+        <v>621.1793763507258</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>296.1519727228447</v>
+        <v>296.1519727228442</v>
+      </c>
+      <c r="D11" t="n">
+        <v>593.6028576067542</v>
+      </c>
+      <c r="E11" t="n">
+        <v>370.1899659035557</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>417.0649672508407</v>
+        <v>415.6487873959991</v>
+      </c>
+      <c r="D12" t="n">
+        <v>217.3836077181804</v>
+      </c>
+      <c r="E12" t="n">
+        <v>623.8272260577091</v>
       </c>
     </row>
     <row r="13">
@@ -600,6 +676,12 @@
       <c r="C13" t="n">
         <v>356.2610229276897</v>
       </c>
+      <c r="D13" t="n">
+        <v>179.0123456790125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>704.5855379188715</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -611,7 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>185.574229691877</v>
+        <v>185.5742296918761</v>
+      </c>
+      <c r="D14" t="n">
+        <v>374.6498599439774</v>
+      </c>
+      <c r="E14" t="n">
+        <v>556.0224089635849</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>329.579134558388</v>
+        <v>330.5275637225841</v>
+      </c>
+      <c r="D15" t="n">
+        <v>165.5008891523412</v>
+      </c>
+      <c r="E15" t="n">
+        <v>496.5026674570245</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>205.8560689691426</v>
+        <v>206.276612521684</v>
+      </c>
+      <c r="D16" t="n">
+        <v>411.9224097145561</v>
+      </c>
+      <c r="E16" t="n">
+        <v>618.4092940125111</v>
       </c>
     </row>
     <row r="17">
@@ -652,6 +752,12 @@
       <c r="C17" t="n">
         <v>358.4229390681003</v>
       </c>
+      <c r="D17" t="n">
+        <v>179.8088410991641</v>
+      </c>
+      <c r="E17" t="n">
+        <v>545.4002389486259</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -663,7 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>369.8446981384341</v>
+        <v>369.0219068188831</v>
+      </c>
+      <c r="D18" t="n">
+        <v>185.5394425588811</v>
+      </c>
+      <c r="E18" t="n">
+        <v>732.6956700606811</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>345.7663072299802</v>
+        <v>345.7663072299806</v>
+      </c>
+      <c r="D19" t="n">
+        <v>487.1840197984798</v>
+      </c>
+      <c r="E19" t="n">
+        <v>171.8225207707264</v>
       </c>
     </row>
     <row r="20">
@@ -691,6 +809,12 @@
       <c r="C20" t="n">
         <v>348.5707672723065</v>
       </c>
+      <c r="D20" t="n">
+        <v>174.5168383288974</v>
+      </c>
+      <c r="E20" t="n">
+        <v>523.0876056012039</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -702,7 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>326.7197682838523</v>
+        <v>326.7197682838519</v>
+      </c>
+      <c r="D21" t="n">
+        <v>490.6589427950767</v>
+      </c>
+      <c r="E21" t="n">
+        <v>163.3598841419257</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>340.6052076002816</v>
+        <v>341.4094701920176</v>
+      </c>
+      <c r="D22" t="n">
+        <v>173.3185885191515</v>
+      </c>
+      <c r="E22" t="n">
+        <v>511.9131396400926</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>302.1536483445834</v>
+        <v>302.6679524268729</v>
+      </c>
+      <c r="D23" t="n">
+        <v>453.359048537448</v>
+      </c>
+      <c r="E23" t="n">
+        <v>150.9482481517198</v>
       </c>
     </row>
     <row r="24">
@@ -743,6 +885,12 @@
       <c r="C24" t="n">
         <v>317.264957264957</v>
       </c>
+      <c r="D24" t="n">
+        <v>476.5811965811963</v>
+      </c>
+      <c r="E24" t="n">
+        <v>158.6324786324785</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -756,6 +904,12 @@
       <c r="C25" t="n">
         <v>294.3905525094897</v>
       </c>
+      <c r="D25" t="n">
+        <v>571.9105862505276</v>
+      </c>
+      <c r="E25" t="n">
+        <v>858.7094053142137</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -767,7 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>264.803368270178</v>
+        <v>264.0867150407594</v>
+      </c>
+      <c r="D26" t="n">
+        <v>529.2484099256471</v>
+      </c>
+      <c r="E26" t="n">
+        <v>797.2767177282094</v>
       </c>
     </row>
     <row r="27">
@@ -782,6 +942,12 @@
       <c r="C27" t="n">
         <v>294.1803453421444</v>
       </c>
+      <c r="D27" t="n">
+        <v>591.7714772969516</v>
+      </c>
+      <c r="E27" t="n">
+        <v>885.951822639096</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -793,7 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>256.0343985146101</v>
+        <v>256.8161829375549</v>
+      </c>
+      <c r="D28" t="n">
+        <v>769.666764389719</v>
+      </c>
+      <c r="E28" t="n">
+        <v>514.0232580865822</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>541.0173478388706</v>
+        <v>541.017347838871</v>
+      </c>
+      <c r="D29" t="n">
+        <v>269.3325492502208</v>
+      </c>
+      <c r="E29" t="n">
+        <v>785.6512790355778</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>491.0906598785978</v>
+        <v>489.5241824946152</v>
+      </c>
+      <c r="D30" t="n">
+        <v>245.153710593303</v>
+      </c>
+      <c r="E30" t="n">
+        <v>738.594086547876</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>269.2180798416362</v>
+        <v>269.2180798416366</v>
+      </c>
+      <c r="D31" t="n">
+        <v>539.0960079181787</v>
+      </c>
+      <c r="E31" t="n">
+        <v>806.9943912900035</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>422.2098303194457</v>
+        <v>422.8471281765314</v>
+      </c>
+      <c r="D32" t="n">
+        <v>211.2642396239944</v>
+      </c>
+      <c r="E32" t="n">
+        <v>851.7485859953795</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>232.7872147954572</v>
+        <v>233.5913157101213</v>
+      </c>
+      <c r="D33" t="n">
+        <v>466.7805809629108</v>
+      </c>
+      <c r="E33" t="n">
+        <v>699.9698462157003</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>243.8858695652175</v>
+        <v>243.8858695652179</v>
+      </c>
+      <c r="D34" t="n">
+        <v>489.8097826086955</v>
+      </c>
+      <c r="E34" t="n">
+        <v>728.2608695652179</v>
       </c>
     </row>
     <row r="35">
@@ -886,6 +1094,12 @@
       <c r="C35" t="n">
         <v>287.2027180067953</v>
       </c>
+      <c r="D35" t="n">
+        <v>578.9354473386184</v>
+      </c>
+      <c r="E35" t="n">
+        <v>862.514156285391</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -897,7 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>290.6326849988823</v>
+        <v>290.6326849988818</v>
+      </c>
+      <c r="D36" t="n">
+        <v>578.5826067516209</v>
+      </c>
+      <c r="E36" t="n">
+        <v>862.0612564274534</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>275.0217580504786</v>
+        <v>274.2481384779039</v>
+      </c>
+      <c r="D37" t="n">
+        <v>827.386132869161</v>
+      </c>
+      <c r="E37" t="n">
+        <v>549.6567063146695</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>192.0223932820159</v>
+        <v>193.1420573827845</v>
+      </c>
+      <c r="D38" t="n">
+        <v>375.6473058082574</v>
+      </c>
+      <c r="E38" t="n">
+        <v>564.8705388383478</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>292.7243759957514</v>
+        <v>293.5740839086566</v>
+      </c>
+      <c r="D39" t="n">
+        <v>586.7233138608608</v>
+      </c>
+      <c r="E39" t="n">
+        <v>880.7222517259697</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>557.9740831710005</v>
+        <v>558.6516473278562</v>
+      </c>
+      <c r="D40" t="n">
+        <v>279.4952147031418</v>
+      </c>
+      <c r="E40" t="n">
+        <v>836.4529516388584</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>311.9704540517055</v>
+        <v>311.970454051705</v>
+      </c>
+      <c r="D41" t="n">
+        <v>629.1548989789262</v>
+      </c>
+      <c r="E41" t="n">
+        <v>935.0423636758633</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>583.5149753774117</v>
+        <v>584.160813756358</v>
+      </c>
+      <c r="D42" t="n">
+        <v>876.0797610397999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>289.6585129571322</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>171.4488133191644</v>
+        <v>170.5041917581766</v>
+      </c>
+      <c r="D43" t="n">
+        <v>343.3699374188218</v>
+      </c>
+      <c r="E43" t="n">
+        <v>514.3464399574923</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>431.2238747934289</v>
+        <v>432.0015553611347</v>
+      </c>
+      <c r="D44" t="n">
+        <v>288.1306503353744</v>
+      </c>
+      <c r="E44" t="n">
+        <v>144.2597453096141</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>393.9111525318426</v>
+        <v>393.9111525318422</v>
+      </c>
+      <c r="D45" t="n">
+        <v>198.8195091643365</v>
+      </c>
+      <c r="E45" t="n">
+        <v>801.4911463187318</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>192.4966851259651</v>
+        <v>193.1206614148659</v>
+      </c>
+      <c r="D46" t="n">
+        <v>385.9293346852819</v>
+      </c>
+      <c r="E46" t="n">
+        <v>768.4267997816078</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>434.7610794751176</v>
+        <v>435.4213089048444</v>
+      </c>
+      <c r="D47" t="n">
+        <v>218.8660559544442</v>
+      </c>
+      <c r="E47" t="n">
+        <v>346.9505653214492</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>249.376558603491</v>
+        <v>250.1745635910229</v>
+      </c>
+      <c r="D48" t="n">
+        <v>499.1521197007487</v>
+      </c>
+      <c r="E48" t="n">
+        <v>748.927680798005</v>
       </c>
     </row>
   </sheetData>
